--- a/Unity/Assets/Config/Excel/MapObjectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MapObjectConfig.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>HCFX_Beam_04&amp;0:0:0:10:10:10:0:0:0|-17:0:0:10:10:10:0:0:0|-85.03:0:0:10:10:10:326.21:124.1:0@HCFX_Appear_02_Start&amp;0:0:0:10:10:10:0:0:0@HCFX_Appear_03&amp;0:0:0:10:10:10:0:0:0|16:0:-30:10:10:10:0:0:0@</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1162,7 @@
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1194,9 +1197,11 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:4">
       <c r="C6" s="4">
-        <v>101</v>
+        <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
